--- a/11-03-24 to 11-09-24 Madison Schedule.xlsx
+++ b/11-03-24 to 11-09-24 Madison Schedule.xlsx
@@ -796,7 +796,7 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #083, 
+          <t>FOX BROS PIGGLY WIGGLY #083, 
 BEAVER DAM</t>
         </is>
       </c>
@@ -2024,7 +2024,7 @@
       <c r="E28" t="inlineStr"/>
       <c r="F28" t="inlineStr">
         <is>
-          <t>PIGGLY WIGGLY #093, OCONOMOWOC</t>
+          <t>FOX BROS PIGGLY WIGGLY #093, OCONOMOWOC</t>
         </is>
       </c>
       <c r="G28" t="inlineStr"/>

--- a/11-03-24 to 11-09-24 Madison Schedule.xlsx
+++ b/11-03-24 to 11-09-24 Madison Schedule.xlsx
@@ -4404,7 +4404,11 @@
       <c r="C65" t="inlineStr"/>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr"/>
-      <c r="F65" t="inlineStr"/>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>11:00 AM START</t>
+        </is>
+      </c>
       <c r="G65" t="inlineStr"/>
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr"/>
@@ -4447,7 +4451,11 @@
       <c r="C66" t="inlineStr"/>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr"/>
-      <c r="F66" t="inlineStr"/>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>401K PHONE CALL MTG WITH BADGER 401K REP CHRIS BROCK</t>
+        </is>
+      </c>
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
@@ -4498,7 +4506,11 @@
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr"/>
-      <c r="F67" t="inlineStr"/>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">THIS MTG IS TO PROVIDE INFORMATION TO HELP YOU DECIDE IF YOU WANT TO JOIN </t>
+        </is>
+      </c>
       <c r="G67" t="inlineStr"/>
       <c r="H67" t="inlineStr"/>
       <c r="I67" t="inlineStr"/>
@@ -4533,7 +4545,11 @@
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr"/>
-      <c r="F68" t="inlineStr"/>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">THE BADGER 401 K PROGRAM TO HELP YOU GET FREE </t>
+        </is>
+      </c>
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
@@ -4576,7 +4592,11 @@
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>MONEY. THERE IS NO OBLIGATION TO JOIN</t>
+        </is>
+      </c>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
@@ -4662,8 +4682,16 @@
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Joseph</t>
+        </is>
+      </c>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>

--- a/11-03-24 to 11-09-24 Madison Schedule.xlsx
+++ b/11-03-24 to 11-09-24 Madison Schedule.xlsx
@@ -3019,7 +3019,7 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
@@ -3080,21 +3080,9 @@
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>14)</t>
-        </is>
-      </c>
-      <c r="F46" t="inlineStr">
-        <is>
-          <t>Sydney</t>
-        </is>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="E46" t="inlineStr"/>
+      <c r="F46" t="inlineStr"/>
+      <c r="G46" t="inlineStr"/>
       <c r="H46" t="inlineStr"/>
       <c r="I46" t="inlineStr">
         <is>
@@ -3226,8 +3214,16 @@
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
-      <c r="F48" t="inlineStr"/>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="G48" t="inlineStr"/>
       <c r="H48" t="inlineStr"/>
       <c r="I48" t="inlineStr">
@@ -3290,14 +3286,10 @@
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -3378,7 +3370,7 @@
       <c r="E50" t="inlineStr"/>
       <c r="F50" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>KELLEY #39, ALPINE MOBIL, ROCKFORD</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -3460,7 +3452,7 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr">
         <is>
-          <t>KELLEY #39, ALPINE MOBIL, ROCKFORD</t>
+          <t>321 N ALPINE ROAD</t>
         </is>
       </c>
       <c r="G51" t="inlineStr"/>
@@ -3536,7 +3528,7 @@
       <c r="E52" t="inlineStr"/>
       <c r="F52" t="inlineStr">
         <is>
-          <t>321 N ALPINE ROAD</t>
+          <t>https://goo.gl/maps/TGuxbxW7qpk</t>
         </is>
       </c>
       <c r="G52" t="inlineStr"/>
@@ -3606,11 +3598,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr"/>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/TGuxbxW7qpk</t>
-        </is>
-      </c>
+      <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr"/>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
@@ -3682,9 +3670,21 @@
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
-      <c r="F54" t="inlineStr"/>
-      <c r="G54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="H54" t="inlineStr"/>
       <c r="I54" t="inlineStr">
         <is>
@@ -3747,19 +3747,15 @@
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Angela</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
@@ -3822,12 +3818,12 @@
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Angela</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -3897,12 +3893,12 @@
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -3972,12 +3968,12 @@
       <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -4047,15 +4043,19 @@
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr"/>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Until 8:15</t>
+        </is>
+      </c>
       <c r="H59" t="inlineStr"/>
       <c r="I59" t="inlineStr">
         <is>
@@ -4110,19 +4110,15 @@
       <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>Until 8:15</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr"/>
       <c r="H60" t="inlineStr"/>
       <c r="I60" t="inlineStr">
         <is>
@@ -4177,12 +4173,12 @@
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="G61" t="inlineStr"/>
@@ -4238,16 +4234,8 @@
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
+      <c r="E62" t="inlineStr"/>
+      <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr"/>
       <c r="H62" t="inlineStr"/>
       <c r="I62" t="inlineStr">
@@ -4365,7 +4353,11 @@
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr"/>
-      <c r="F64" t="inlineStr"/>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>11:00 AM START</t>
+        </is>
+      </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr"/>
@@ -4406,7 +4398,7 @@
       <c r="E65" t="inlineStr"/>
       <c r="F65" t="inlineStr">
         <is>
-          <t>11:00 AM START</t>
+          <t>401K PHONE CALL MTG WITH BADGER 401K REP CHRIS BROCK</t>
         </is>
       </c>
       <c r="G65" t="inlineStr"/>
@@ -4453,7 +4445,7 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr">
         <is>
-          <t>401K PHONE CALL MTG WITH BADGER 401K REP CHRIS BROCK</t>
+          <t xml:space="preserve">THIS MTG IS TO PROVIDE INFORMATION TO HELP YOU DECIDE IF YOU WANT TO JOIN </t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
@@ -4508,7 +4500,7 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr">
         <is>
-          <t xml:space="preserve">THIS MTG IS TO PROVIDE INFORMATION TO HELP YOU DECIDE IF YOU WANT TO JOIN </t>
+          <t xml:space="preserve">THE BADGER 401 K PROGRAM TO HELP YOU GET FREE </t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -4547,7 +4539,7 @@
       <c r="E68" t="inlineStr"/>
       <c r="F68" t="inlineStr">
         <is>
-          <t xml:space="preserve">THE BADGER 401 K PROGRAM TO HELP YOU GET FREE </t>
+          <t>MONEY. THERE IS NO OBLIGATION TO JOIN</t>
         </is>
       </c>
       <c r="G68" t="inlineStr"/>
@@ -4592,11 +4584,7 @@
       <c r="C69" t="inlineStr"/>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>MONEY. THERE IS NO OBLIGATION TO JOIN</t>
-        </is>
-      </c>
+      <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr"/>
       <c r="H69" t="inlineStr"/>
       <c r="I69" t="inlineStr"/>
@@ -4643,8 +4631,16 @@
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
-      <c r="F70" t="inlineStr"/>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Joseph</t>
+        </is>
+      </c>
       <c r="G70" t="inlineStr"/>
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr"/>
@@ -4682,16 +4678,8 @@
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Joseph</t>
-        </is>
-      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr"/>
       <c r="G71" t="inlineStr"/>
       <c r="H71" t="inlineStr"/>
       <c r="I71" t="inlineStr"/>

--- a/11-03-24 to 11-09-24 Madison Schedule.xlsx
+++ b/11-03-24 to 11-09-24 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y76"/>
+  <dimension ref="A1:Y77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -796,8 +796,7 @@
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="inlineStr">
         <is>
-          <t>FOX BROS PIGGLY WIGGLY #083, 
-BEAVER DAM</t>
+          <t>FOX BROS PIGGLY WIGGLY #083, BEAVER DAM</t>
         </is>
       </c>
       <c r="S10" t="inlineStr"/>
@@ -3061,7 +3060,8 @@
       <c r="S45" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Optima</t>
+Optima,
+Trainer</t>
         </is>
       </c>
       <c r="T45" t="inlineStr"/>
@@ -3307,7 +3307,8 @@
       <c r="K49" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Gray Van</t>
+Gray Van,
+Trainer</t>
         </is>
       </c>
       <c r="L49" t="inlineStr"/>
@@ -3324,7 +3325,8 @@
       <c r="O49" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Camry 3</t>
+Camry 3,
+Trainer</t>
         </is>
       </c>
       <c r="P49" t="inlineStr"/>
@@ -3718,9 +3720,22 @@
         </is>
       </c>
       <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="inlineStr"/>
+      <c r="Q54" t="inlineStr">
+        <is>
+          <t>18)</t>
+        </is>
+      </c>
+      <c r="R54" t="inlineStr">
+        <is>
+          <t>Victor</t>
+        </is>
+      </c>
+      <c r="S54" t="inlineStr">
+        <is>
+          <t>@ Store,
+3rd Day, work w/ Nate</t>
+        </is>
+      </c>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
@@ -3861,11 +3876,7 @@
       </c>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="R56" t="inlineStr"/>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
@@ -3938,7 +3949,7 @@
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
@@ -4013,7 +4024,7 @@
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>KELLEY #37, ROCKTON MOBIL</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
@@ -4092,7 +4103,7 @@
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
-          <t>111 N BLACKHAWK BLVD</t>
+          <t>KELLEY #37, ROCKTON MOBIL</t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
@@ -4155,7 +4166,7 @@
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/8XLAYoWmhuu</t>
+          <t>111 N BLACKHAWK BLVD</t>
         </is>
       </c>
       <c r="S60" t="inlineStr"/>
@@ -4216,7 +4227,11 @@
       </c>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/8XLAYoWmhuu</t>
+        </is>
+      </c>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
@@ -4270,21 +4285,9 @@
         </is>
       </c>
       <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="Q62" t="inlineStr"/>
+      <c r="R62" t="inlineStr"/>
+      <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr">
@@ -4321,21 +4324,38 @@
         </is>
       </c>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr"/>
-      <c r="N63" t="inlineStr"/>
-      <c r="O63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>18)</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>Victor</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>@ Store,
+2nd Day, work w/ Michael</t>
+        </is>
+      </c>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="S63" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr">
@@ -4360,9 +4380,22 @@
       </c>
       <c r="G64" t="inlineStr"/>
       <c r="H64" t="inlineStr"/>
-      <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>20)</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>Victor</t>
+        </is>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>@ Store,
+1st Day, work w/ Michael</t>
+        </is>
+      </c>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
       <c r="N64" t="inlineStr"/>
@@ -4370,12 +4403,12 @@
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="S64" t="inlineStr"/>
@@ -4408,21 +4441,17 @@
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="N65" t="inlineStr"/>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="S65" t="inlineStr"/>
@@ -4451,36 +4480,28 @@
       <c r="G66" t="inlineStr"/>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>Until 8:15</t>
-        </is>
-      </c>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr">
@@ -4508,7 +4529,7 @@
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="K67" t="inlineStr"/>
@@ -4516,14 +4537,26 @@
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>KELLEY #46, NORTH SECOND MOBIL, MACHESNEY PARK</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="inlineStr"/>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="R67" t="inlineStr">
+        <is>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="S67" t="inlineStr">
+        <is>
+          <t>Until 8:15</t>
+        </is>
+      </c>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr"/>
@@ -4545,13 +4578,17 @@
       <c r="G68" t="inlineStr"/>
       <c r="H68" t="inlineStr"/>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
         <is>
-          <t>8200 N SECOND ST</t>
+          <t>KELLEY #46, NORTH SECOND MOBIL, MACHESNEY PARK</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
@@ -4594,17 +4631,13 @@
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/FNW6AXgcaf62</t>
+          <t>8200 N SECOND ST</t>
         </is>
       </c>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="R69" t="inlineStr"/>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr">
@@ -4648,13 +4681,17 @@
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr"/>
+      <c r="N70" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/FNW6AXgcaf62</t>
+        </is>
+      </c>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="S70" t="inlineStr"/>
@@ -4686,24 +4723,16 @@
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="inlineStr"/>
+      <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
+      <c r="R71" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr">
@@ -4735,15 +4764,19 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Emily L</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr"/>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr"/>
@@ -4782,12 +4815,12 @@
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Emily L</t>
         </is>
       </c>
       <c r="O73" t="inlineStr"/>
@@ -4817,12 +4850,12 @@
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="O74" t="inlineStr"/>
@@ -4852,12 +4885,12 @@
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="O75" t="inlineStr"/>
@@ -4887,12 +4920,12 @@
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>Tina E</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="O76" t="inlineStr"/>
@@ -4907,6 +4940,41 @@
       <c r="X76" t="inlineStr"/>
       <c r="Y76" t="inlineStr"/>
     </row>
+    <row r="77">
+      <c r="A77" t="inlineStr"/>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="O77" t="inlineStr"/>
+      <c r="P77" t="inlineStr"/>
+      <c r="Q77" t="inlineStr"/>
+      <c r="R77" t="inlineStr"/>
+      <c r="S77" t="inlineStr"/>
+      <c r="T77" t="inlineStr"/>
+      <c r="U77" t="inlineStr"/>
+      <c r="V77" t="inlineStr"/>
+      <c r="W77" t="inlineStr"/>
+      <c r="X77" t="inlineStr"/>
+      <c r="Y77" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/11-03-24 to 11-09-24 Madison Schedule.xlsx
+++ b/11-03-24 to 11-09-24 Madison Schedule.xlsx
@@ -2237,7 +2237,8 @@
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr">
         <is>
-          <t>11:00 REQUIRED MEET AT MENOMONEE FALLS PICK N SAVE</t>
+          <t>11:00 REQUIRED MEET AT 
+TIPP ST PARK AND RIDE</t>
         </is>
       </c>
       <c r="W31" t="inlineStr"/>
@@ -2297,7 +2298,7 @@
       <c r="V32" t="inlineStr">
         <is>
           <t>ADDRESS TO THE MEET:
-N77 W14435 APPLETON AVE, MENOMONEE FALLS</t>
+W156N9277 TIPP ST, MENOMONEE FALLS, WI</t>
         </is>
       </c>
       <c r="W32" t="inlineStr"/>
@@ -2916,7 +2917,7 @@
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr">
         <is>
-          <t>4:15 am meet for Sarah &amp; Aivy at Wayside Park, then meet Lori</t>
+          <t>4:15 am meet for Sarah &amp; Aivy at Wayside Park, then meet Lori &amp; Savannah</t>
         </is>
       </c>
       <c r="K43" t="inlineStr"/>
@@ -3545,7 +3546,11 @@
           <t>Savannah</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr"/>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>4:45 @ Hwy N PnR</t>
+        </is>
+      </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>

--- a/11-03-24 to 11-09-24 Madison Schedule.xlsx
+++ b/11-03-24 to 11-09-24 Madison Schedule.xlsx
@@ -1472,10 +1472,15 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr"/>
+          <t>Ashley P</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Silver Van</t>
+        </is>
+      </c>
       <c r="X20" t="inlineStr"/>
       <c r="Y20" t="inlineStr"/>
     </row>
@@ -1818,8 +1823,8 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>Driver,
-Gray Van</t>
+          <t>Driver, 1/2
+Silver Van</t>
         </is>
       </c>
       <c r="X24" t="inlineStr"/>
@@ -3435,15 +3440,10 @@
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="W50" t="inlineStr">
-        <is>
-          <t>Driver, 
-Silver Van</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr"/>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
     </row>
@@ -3519,7 +3519,12 @@
           <t>Nate</t>
         </is>
       </c>
-      <c r="W51" t="inlineStr"/>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
     </row>

--- a/11-03-24 to 11-09-24 Madison Schedule.xlsx
+++ b/11-03-24 to 11-09-24 Madison Schedule.xlsx
@@ -3500,7 +3500,7 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Nataun</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
@@ -3581,7 +3581,7 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
@@ -3649,12 +3649,13 @@
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Victor</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+3rd Day, work w/ Nate</t>
         </is>
       </c>
       <c r="T53" t="inlineStr"/>
@@ -3730,22 +3731,9 @@
         </is>
       </c>
       <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>18)</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>Victor</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>@ Store,
-3rd Day, work w/ Nate</t>
-        </is>
-      </c>
+      <c r="Q54" t="inlineStr"/>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
@@ -3886,7 +3874,11 @@
       </c>
       <c r="P56" t="inlineStr"/>
       <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
@@ -3959,7 +3951,7 @@
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
@@ -4034,7 +4026,7 @@
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>KELLEY #37, ROCKTON MOBIL</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
@@ -4113,7 +4105,7 @@
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
-          <t>KELLEY #37, ROCKTON MOBIL</t>
+          <t>111 N BLACKHAWK BLVD</t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
@@ -4176,7 +4168,7 @@
       <c r="Q60" t="inlineStr"/>
       <c r="R60" t="inlineStr">
         <is>
-          <t>111 N BLACKHAWK BLVD</t>
+          <t>https://goo.gl/maps/8XLAYoWmhuu</t>
         </is>
       </c>
       <c r="S60" t="inlineStr"/>
@@ -4237,11 +4229,7 @@
       </c>
       <c r="P61" t="inlineStr"/>
       <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/8XLAYoWmhuu</t>
-        </is>
-      </c>
+      <c r="R61" t="inlineStr"/>
       <c r="S61" t="inlineStr"/>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
@@ -4295,9 +4283,21 @@
         </is>
       </c>
       <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="inlineStr"/>
+      <c r="Q62" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R62" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr">
@@ -4353,19 +4353,15 @@
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="S63" t="inlineStr"/>
       <c r="T63" t="inlineStr"/>
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr">
@@ -4413,12 +4409,12 @@
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="S64" t="inlineStr"/>
@@ -4456,12 +4452,12 @@
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S65" t="inlineStr"/>
@@ -4503,15 +4499,19 @@
       <c r="P66" t="inlineStr"/>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="S66" t="inlineStr"/>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="S66" t="inlineStr">
+        <is>
+          <t>Until 8:15</t>
+        </is>
+      </c>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
       <c r="V66" t="inlineStr">
@@ -4552,21 +4552,9 @@
       </c>
       <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="R67" t="inlineStr">
-        <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="S67" t="inlineStr">
-        <is>
-          <t>Until 8:15</t>
-        </is>
-      </c>
+      <c r="Q67" t="inlineStr"/>
+      <c r="R67" t="inlineStr"/>
+      <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
       <c r="U67" t="inlineStr"/>
       <c r="V67" t="inlineStr"/>
@@ -4647,7 +4635,11 @@
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
+      <c r="R69" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr">
@@ -4701,7 +4693,7 @@
       <c r="Q70" t="inlineStr"/>
       <c r="R70" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="S70" t="inlineStr"/>
@@ -4738,11 +4730,7 @@
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="R71" t="inlineStr"/>
       <c r="S71" t="inlineStr"/>
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr">

--- a/11-03-24 to 11-09-24 Madison Schedule.xlsx
+++ b/11-03-24 to 11-09-24 Madison Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y77"/>
+  <dimension ref="A1:Y76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1360,7 +1360,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>Driver, 1/2
+          <t>Driver,
 Corolla</t>
         </is>
       </c>
@@ -1541,14 +1541,12 @@
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Ashley P</t>
+          <t>Brianna</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>Driver,
-Silver Van,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P21" t="inlineStr"/>
@@ -1635,12 +1633,12 @@
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Brianna</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>Rx</t>
         </is>
       </c>
       <c r="P22" t="inlineStr"/>
@@ -1727,14 +1725,10 @@
       </c>
       <c r="N23" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="O23" t="inlineStr">
-        <is>
-          <t>Rx</t>
-        </is>
-      </c>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr"/>
       <c r="P23" t="inlineStr"/>
       <c r="Q23" t="inlineStr">
         <is>
@@ -1794,7 +1788,7 @@
       </c>
       <c r="N24" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="O24" t="inlineStr"/>
@@ -1858,7 +1852,7 @@
       </c>
       <c r="N25" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="O25" t="inlineStr"/>
@@ -1921,10 +1915,15 @@
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Josh S</t>
-        </is>
-      </c>
-      <c r="O26" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>Driver, 
+Gray Van</t>
+        </is>
+      </c>
       <c r="P26" t="inlineStr"/>
       <c r="Q26" t="inlineStr">
         <is>
@@ -1988,15 +1987,10 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="O27" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Corolla</t>
-        </is>
-      </c>
+          <t>Kayla</t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr"/>
       <c r="P27" t="inlineStr"/>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="inlineStr"/>
@@ -2057,7 +2051,7 @@
       </c>
       <c r="N28" t="inlineStr">
         <is>
-          <t>Kayla</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="O28" t="inlineStr"/>
@@ -2108,7 +2102,7 @@
       </c>
       <c r="N29" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="O29" t="inlineStr"/>
@@ -2163,10 +2157,14 @@
       </c>
       <c r="N30" t="inlineStr">
         <is>
-          <t>Makeda</t>
-        </is>
-      </c>
-      <c r="O30" t="inlineStr"/>
+          <t>Greg</t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P30" t="inlineStr"/>
       <c r="Q30" t="inlineStr"/>
       <c r="R30" t="inlineStr">
@@ -2222,12 +2220,13 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>Greg</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="P31" t="inlineStr"/>
@@ -2282,7 +2281,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jerry D</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2355,7 +2354,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Jerry D</t>
+          <t>Justin Learned</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2415,21 +2414,9 @@
         </is>
       </c>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="N34" t="inlineStr">
-        <is>
-          <t>Justin Learned</t>
-        </is>
-      </c>
-      <c r="O34" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="O34" t="inlineStr"/>
       <c r="P34" t="inlineStr"/>
       <c r="Q34" t="inlineStr"/>
       <c r="R34" t="inlineStr">
@@ -2519,7 +2506,11 @@
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
-      <c r="N36" t="inlineStr"/>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="O36" t="inlineStr"/>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
@@ -2569,7 +2560,7 @@
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O37" t="inlineStr"/>
@@ -2628,7 +2619,8 @@
       <c r="M38" t="inlineStr"/>
       <c r="N38" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>PICK #856, RACINE - 
+MT PLEASANT</t>
         </is>
       </c>
       <c r="O38" t="inlineStr"/>
@@ -2683,8 +2675,7 @@
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
         <is>
-          <t>PICK #856, RACINE - 
-MT PLEASANT</t>
+          <t>1202  N GREENBAY RD</t>
         </is>
       </c>
       <c r="O39" t="inlineStr"/>
@@ -2748,7 +2739,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>1202  N GREENBAY RD</t>
+          <t>https://goo.gl/maps/gCMavYTDGoo</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2807,7 +2798,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/gCMavYTDGoo</t>
+          <t>SET UP ON REG #1</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -2866,7 +2857,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>SET UP ON REG #1</t>
+          <t>STORE RESET-REMAPPED</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2930,7 +2921,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>STORE RESET-REMAPPED</t>
+          <t>*IL Meet is 4:15 am at IL Office</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -2983,11 +2974,7 @@
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
       <c r="M44" t="inlineStr"/>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>*IL Meet is 4:15 am at IL Office</t>
-        </is>
-      </c>
+      <c r="N44" t="inlineStr"/>
       <c r="O44" t="inlineStr"/>
       <c r="P44" t="inlineStr"/>
       <c r="Q44" t="inlineStr">
@@ -3049,9 +3036,21 @@
         </is>
       </c>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="inlineStr"/>
-      <c r="N45" t="inlineStr"/>
-      <c r="O45" t="inlineStr"/>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr">
         <is>
@@ -3108,17 +3107,17 @@
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N46" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Josie</t>
         </is>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store w/ Lori</t>
         </is>
       </c>
       <c r="P46" t="inlineStr"/>
@@ -3175,17 +3174,17 @@
       <c r="L47" t="inlineStr"/>
       <c r="M47" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Josie</t>
+          <t>Lori</t>
         </is>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>@ Store w/ Lori</t>
+          <t>Driver</t>
         </is>
       </c>
       <c r="P47" t="inlineStr"/>
@@ -3250,17 +3249,19 @@
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>Lori</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>Driver</t>
+          <t>Driver, 1/2
+Camry 3,
+Trainer</t>
         </is>
       </c>
       <c r="P48" t="inlineStr"/>
@@ -3320,19 +3321,18 @@
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
           <t>Driver, 1/2
-Camry 3,
-Trainer</t>
+Camry 3</t>
         </is>
       </c>
       <c r="P49" t="inlineStr"/>
@@ -3402,18 +3402,17 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Camry 3</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P50" t="inlineStr"/>
@@ -3479,17 +3478,18 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+After Aurora</t>
         </is>
       </c>
       <c r="P51" t="inlineStr"/>
@@ -3559,12 +3559,12 @@
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
@@ -3627,18 +3627,17 @@
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>@ Store,
-After Aurora</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P53" t="inlineStr"/>
@@ -3717,12 +3716,12 @@
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="N54" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Lexi</t>
         </is>
       </c>
       <c r="O54" t="inlineStr">
@@ -3788,12 +3787,12 @@
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="inlineStr">
         <is>
-          <t>10)</t>
+          <t>11)</t>
         </is>
       </c>
       <c r="N55" t="inlineStr">
         <is>
-          <t>Lexi</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="O55" t="inlineStr">
@@ -3859,12 +3858,12 @@
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr">
         <is>
-          <t>11)</t>
+          <t>12)</t>
         </is>
       </c>
       <c r="N56" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="O56" t="inlineStr">
@@ -3934,12 +3933,12 @@
       <c r="L57" t="inlineStr"/>
       <c r="M57" t="inlineStr">
         <is>
-          <t>12)</t>
+          <t>13)</t>
         </is>
       </c>
       <c r="N57" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="O57" t="inlineStr">
@@ -4009,12 +4008,12 @@
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="inlineStr">
         <is>
-          <t>13)</t>
+          <t>14)</t>
         </is>
       </c>
       <c r="N58" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="O58" t="inlineStr">
@@ -4088,12 +4087,12 @@
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr">
         <is>
-          <t>14)</t>
+          <t>15)</t>
         </is>
       </c>
       <c r="N59" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Stephanie</t>
         </is>
       </c>
       <c r="O59" t="inlineStr">
@@ -4151,12 +4150,12 @@
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr">
         <is>
-          <t>15)</t>
+          <t>16)</t>
         </is>
       </c>
       <c r="N60" t="inlineStr">
         <is>
-          <t>Stephanie</t>
+          <t>Sue</t>
         </is>
       </c>
       <c r="O60" t="inlineStr">
@@ -4214,12 +4213,12 @@
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr">
         <is>
-          <t>16)</t>
+          <t>17)</t>
         </is>
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>Sue</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
@@ -4269,17 +4268,18 @@
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr">
         <is>
-          <t>17)</t>
+          <t>18)</t>
         </is>
       </c>
       <c r="N62" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Victor</t>
         </is>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+2nd Day, work w/ Michael</t>
         </is>
       </c>
       <c r="P62" t="inlineStr"/>
@@ -4334,22 +4334,9 @@
         </is>
       </c>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>18)</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>Victor</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>@ Store,
-2nd Day, work w/ Michael</t>
-        </is>
-      </c>
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+      <c r="O63" t="inlineStr"/>
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr">
         <is>
@@ -4447,7 +4434,11 @@
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr">
@@ -4492,7 +4483,7 @@
       <c r="M66" t="inlineStr"/>
       <c r="N66" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="O66" t="inlineStr"/>
@@ -4547,7 +4538,7 @@
       <c r="M67" t="inlineStr"/>
       <c r="N67" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>KELLEY #46, NORTH SECOND MOBIL, MACHESNEY PARK</t>
         </is>
       </c>
       <c r="O67" t="inlineStr"/>
@@ -4586,7 +4577,7 @@
       <c r="M68" t="inlineStr"/>
       <c r="N68" t="inlineStr">
         <is>
-          <t>KELLEY #46, NORTH SECOND MOBIL, MACHESNEY PARK</t>
+          <t>8200 N SECOND ST</t>
         </is>
       </c>
       <c r="O68" t="inlineStr"/>
@@ -4629,7 +4620,7 @@
       <c r="M69" t="inlineStr"/>
       <c r="N69" t="inlineStr">
         <is>
-          <t>8200 N SECOND ST</t>
+          <t>https://goo.gl/maps/FNW6AXgcaf62</t>
         </is>
       </c>
       <c r="O69" t="inlineStr"/>
@@ -4683,11 +4674,7 @@
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="inlineStr"/>
-      <c r="N70" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/FNW6AXgcaf62</t>
-        </is>
-      </c>
+      <c r="N70" t="inlineStr"/>
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
@@ -4725,9 +4712,21 @@
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
-      <c r="O71" t="inlineStr"/>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>
       <c r="R71" t="inlineStr"/>
@@ -4762,19 +4761,15 @@
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N72" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr"/>
       <c r="P72" t="inlineStr"/>
       <c r="Q72" t="inlineStr"/>
       <c r="R72" t="inlineStr"/>
@@ -4813,12 +4808,12 @@
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N73" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="O73" t="inlineStr"/>
@@ -4848,12 +4843,12 @@
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="N74" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Spencer P</t>
         </is>
       </c>
       <c r="O74" t="inlineStr"/>
@@ -4883,12 +4878,12 @@
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="N75" t="inlineStr">
         <is>
-          <t>Spencer P</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="O75" t="inlineStr"/>
@@ -4918,12 +4913,12 @@
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="N76" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Tina E</t>
         </is>
       </c>
       <c r="O76" t="inlineStr"/>
@@ -4938,41 +4933,6 @@
       <c r="X76" t="inlineStr"/>
       <c r="Y76" t="inlineStr"/>
     </row>
-    <row r="77">
-      <c r="A77" t="inlineStr"/>
-      <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="N77" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="inlineStr"/>
-      <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
-      <c r="Y77" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/11-03-24 to 11-09-24 Madison Schedule.xlsx
+++ b/11-03-24 to 11-09-24 Madison Schedule.xlsx
@@ -1127,7 +1127,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store, Equip Prius to shop in SP</t>
         </is>
       </c>
       <c r="X16" t="inlineStr"/>

--- a/11-03-24 to 11-09-24 Madison Schedule.xlsx
+++ b/11-03-24 to 11-09-24 Madison Schedule.xlsx
@@ -1375,7 +1375,12 @@
           <t>Angela</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr"/>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Silver Van</t>
+        </is>
+      </c>
       <c r="T19" t="inlineStr"/>
       <c r="U19" t="inlineStr">
         <is>
@@ -1455,84 +1460,79 @@
       </c>
       <c r="R20" t="inlineStr">
         <is>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr"/>
+      <c r="T20" t="inlineStr"/>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>5)</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Evelin</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Driver,
+Corolla</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr"/>
+      <c r="Y20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>6)</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr"/>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>7)</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Michelle</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
           <t>Ashley P</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>Driver,
 Silver Van</t>
         </is>
       </c>
-      <c r="T20" t="inlineStr"/>
-      <c r="U20" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="V20" t="inlineStr">
-        <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="W20" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Silver Van</t>
-        </is>
-      </c>
-      <c r="X20" t="inlineStr"/>
-      <c r="Y20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>Michelle</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr"/>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Ashley P</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>Driver,
-Silver Van</t>
-        </is>
-      </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="inlineStr">
         <is>
@@ -1557,7 +1557,7 @@
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Justin Lee</t>
         </is>
       </c>
       <c r="S21" t="inlineStr"/>
@@ -1569,15 +1569,10 @@
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Evelin</t>
-        </is>
-      </c>
-      <c r="W21" t="inlineStr">
-        <is>
-          <t>Driver,
-Corolla</t>
-        </is>
-      </c>
+          <t>Joseph</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr"/>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="inlineStr"/>
     </row>
@@ -1661,7 +1656,7 @@
       </c>
       <c r="V22" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="W22" t="inlineStr"/>
@@ -1753,10 +1748,15 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Josh S</t>
-        </is>
-      </c>
-      <c r="W23" t="inlineStr"/>
+          <t>Justin Lee</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Driver,
+Silver Van</t>
+        </is>
+      </c>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="inlineStr"/>
     </row>
@@ -1803,7 +1803,12 @@
           <t>Michael N</t>
         </is>
       </c>
-      <c r="S24" t="inlineStr"/>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>Driver, 1/2
+Silver Van</t>
+        </is>
+      </c>
       <c r="T24" t="inlineStr"/>
       <c r="U24" t="inlineStr">
         <is>
@@ -1812,15 +1817,10 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="W24" t="inlineStr">
-        <is>
-          <t>Driver, 1/2
-Silver Van</t>
-        </is>
-      </c>
+          <t>Lorena</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr"/>
       <c r="X24" t="inlineStr"/>
       <c r="Y24" t="inlineStr"/>
     </row>
@@ -1864,10 +1864,14 @@
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="S25" t="inlineStr"/>
+          <t>Michelle</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="T25" t="inlineStr"/>
       <c r="U25" t="inlineStr">
         <is>
@@ -1876,7 +1880,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="W25" t="inlineStr"/>
@@ -1932,14 +1936,10 @@
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>Michelle</t>
-        </is>
-      </c>
-      <c r="S26" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr"/>
       <c r="T26" t="inlineStr"/>
       <c r="U26" t="inlineStr">
         <is>
@@ -1948,10 +1948,14 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Makeda</t>
-        </is>
-      </c>
-      <c r="W26" t="inlineStr"/>
+          <t>Seth</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>@ Store, 3rd Scan, work w/ Anisha</t>
+        </is>
+      </c>
       <c r="X26" t="inlineStr"/>
       <c r="Y26" t="inlineStr"/>
     </row>
@@ -1996,21 +2000,9 @@
       <c r="R27" t="inlineStr"/>
       <c r="S27" t="inlineStr"/>
       <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>Seth</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>@ Store, 3rd Scan, work w/ Anisha</t>
-        </is>
-      </c>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
     </row>
@@ -2116,7 +2108,11 @@
       <c r="S29" t="inlineStr"/>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>THEY NOW HAVE SIGNS UP NO STREET PARKING</t>
+        </is>
+      </c>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
@@ -2177,7 +2173,8 @@
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr">
         <is>
-          <t>THEY NOW HAVE SIGNS UP NO STREET PARKING</t>
+          <t>11:00 REQUIRED MEET AT 
+TIPP ST PARK AND RIDE</t>
         </is>
       </c>
       <c r="W30" t="inlineStr"/>
@@ -2241,8 +2238,8 @@
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr">
         <is>
-          <t>11:00 REQUIRED MEET AT 
-TIPP ST PARK AND RIDE</t>
+          <t>ADDRESS TO THE MEET:
+W156N9277 TIPP ST, MENOMONEE FALLS, WI</t>
         </is>
       </c>
       <c r="W31" t="inlineStr"/>
@@ -2301,8 +2298,7 @@
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
         <is>
-          <t>ADDRESS TO THE MEET:
-W156N9277 TIPP ST, MENOMONEE FALLS, WI</t>
+          <t>11:30 AM START</t>
         </is>
       </c>
       <c r="W32" t="inlineStr"/>
@@ -2374,7 +2370,7 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>11:30 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -2429,7 +2425,7 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>AURORA OUTPATIENT RX #1119, MENOMONEE FALLS</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -2477,7 +2473,7 @@
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1119, MENOMONEE FALLS</t>
+          <t>N93 W14575 WHITTAKER WAY</t>
         </is>
       </c>
       <c r="W35" t="inlineStr"/>
@@ -2520,7 +2516,7 @@
       <c r="U36" t="inlineStr"/>
       <c r="V36" t="inlineStr">
         <is>
-          <t>N93 W14575 WHITTAKER WAY</t>
+          <t>https://goo.gl/maps/CLqauUgd2u12</t>
         </is>
       </c>
       <c r="W36" t="inlineStr"/>
@@ -2584,7 +2580,7 @@
       <c r="U37" t="inlineStr"/>
       <c r="V37" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/CLqauUgd2u12</t>
+          <t>Area tickets are used here, Supv will need to arrive one hour early at 10:30 to post them</t>
         </is>
       </c>
       <c r="W37" t="inlineStr"/>
@@ -2640,7 +2636,7 @@
       <c r="U38" t="inlineStr"/>
       <c r="V38" t="inlineStr">
         <is>
-          <t>Area tickets are used here, Supv will need to arrive one hour early at 10:30 to post them</t>
+          <t xml:space="preserve">Make sure to bring folders for both sites - *notes* - Items over $1,000 count as tenths - Count big dollar sections 1st for auditing. </t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
@@ -2692,15 +2688,15 @@
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Optima</t>
+          <t>Driver,
+Corolla</t>
         </is>
       </c>
       <c r="T39" t="inlineStr"/>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="inlineStr">
         <is>
-          <t xml:space="preserve">Make sure to bring folders for both sites - *notes* - Items over $1,000 count as tenths - Count big dollar sections 1st for auditing. </t>
+          <t>Make sure to tag each location when completed. Try to start large Drawer sections early - they take a lot of time.</t>
         </is>
       </c>
       <c r="W39" t="inlineStr"/>
@@ -2759,7 +2755,7 @@
       <c r="U40" t="inlineStr"/>
       <c r="V40" t="inlineStr">
         <is>
-          <t>Make sure to tag each location when completed. Try to start large Drawer sections early - they take a lot of time.</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W40" t="inlineStr"/>
@@ -2818,7 +2814,7 @@
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>AURORA OUTPATIENT RX #1143 MENOMONEE FALLS</t>
         </is>
       </c>
       <c r="W41" t="inlineStr"/>
@@ -2869,20 +2865,15 @@
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>Justin Lee</t>
-        </is>
-      </c>
-      <c r="S42" t="inlineStr">
-        <is>
-          <t>Driver,
-Corolla</t>
-        </is>
-      </c>
+          <t>Lorena</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr"/>
       <c r="T42" t="inlineStr"/>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1143 MENOMONEE FALLS</t>
+          <t xml:space="preserve">N93 W14575 WHITTAKER WAY </t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -2933,7 +2924,7 @@
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
@@ -2941,7 +2932,7 @@
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr">
         <is>
-          <t xml:space="preserve">N93 W14575 WHITTAKER WAY </t>
+          <t>https://goo.gl/maps/AJgcVD6yx75Kq3yS6</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
@@ -2984,15 +2975,21 @@
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>Makeda</t>
-        </is>
-      </c>
-      <c r="S44" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima,
+Trainer</t>
+        </is>
+      </c>
       <c r="T44" t="inlineStr"/>
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/AJgcVD6yx75Kq3yS6</t>
+          <t>Need to go up a flight of stairs for this site</t>
         </is>
       </c>
       <c r="W44" t="inlineStr"/>
@@ -3059,21 +3056,19 @@
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Curt</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>Driver, 1/2
-Optima,
-Trainer</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr">
         <is>
-          <t>Need to go up a flight of stairs for this site</t>
+          <t>*IL Meet is 9:30 am at IL Office</t>
         </is>
       </c>
       <c r="W45" t="inlineStr"/>
@@ -3128,7 +3123,7 @@
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>Curt</t>
+          <t>Cynthia</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
@@ -3140,7 +3135,7 @@
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr">
         <is>
-          <t>*IL Meet is 9:30 am at IL Office</t>
+          <t>Meeting at Menomonee Falls PNS, pickup Jeremiah &amp; Sarah</t>
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
@@ -3195,21 +3190,18 @@
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Cynthia</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+After Aurora</t>
         </is>
       </c>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>Meeting at Menomonee Falls PNS, pickup Jeremiah &amp; Sarah</t>
-        </is>
-      </c>
+      <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
@@ -3272,19 +3264,30 @@
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Leyna</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>@ Store,
-After Aurora</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr"/>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
     </row>
@@ -3343,7 +3346,7 @@
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>Leyna</t>
+          <t>Monica</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -3354,19 +3357,15 @@
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="W49" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+          <t>Eva</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
     </row>
@@ -3423,7 +3422,7 @@
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>Monica</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
@@ -3434,15 +3433,20 @@
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Eva</t>
-        </is>
-      </c>
-      <c r="W50" t="inlineStr"/>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="X50" t="inlineStr"/>
       <c r="Y50" t="inlineStr"/>
     </row>
@@ -3500,7 +3504,7 @@
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Sydney</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
@@ -3511,20 +3515,15 @@
       <c r="T51" t="inlineStr"/>
       <c r="U51" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V51" t="inlineStr">
         <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="W51" t="inlineStr">
-        <is>
-          <t>Driver,
-Optima</t>
-        </is>
-      </c>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
     </row>
@@ -3581,26 +3580,32 @@
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>Sydney</t>
+          <t>Victor</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+3rd Day, work w/ Nate</t>
         </is>
       </c>
       <c r="T52" t="inlineStr"/>
       <c r="U52" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="W52" t="inlineStr"/>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>Meet Rkfd 
+@ PNS</t>
+        </is>
+      </c>
       <c r="X52" t="inlineStr"/>
       <c r="Y52" t="inlineStr"/>
     </row>
@@ -3641,37 +3646,23 @@
         </is>
       </c>
       <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>Victor</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>@ Store,
-3rd Day, work w/ Nate</t>
-        </is>
-      </c>
+      <c r="Q53" t="inlineStr"/>
+      <c r="R53" t="inlineStr"/>
+      <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr">
         <is>
-          <t>5)</t>
+          <t>6)</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
         <is>
-          <t>Meet Rkfd 
-@ PNS</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X53" t="inlineStr"/>
@@ -3736,12 +3727,12 @@
       <c r="T54" t="inlineStr"/>
       <c r="U54" t="inlineStr">
         <is>
-          <t>6)</t>
+          <t>7)</t>
         </is>
       </c>
       <c r="V54" t="inlineStr">
         <is>
-          <t>DJ</t>
+          <t>Ian</t>
         </is>
       </c>
       <c r="W54" t="inlineStr">
@@ -3802,17 +3793,21 @@
       </c>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr">
         <is>
-          <t>7)</t>
+          <t>8)</t>
         </is>
       </c>
       <c r="V55" t="inlineStr">
         <is>
-          <t>Ian</t>
+          <t>Jeremiah</t>
         </is>
       </c>
       <c r="W55" t="inlineStr">
@@ -3875,19 +3870,19 @@
       <c r="Q56" t="inlineStr"/>
       <c r="R56" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr">
         <is>
-          <t>8)</t>
+          <t>9)</t>
         </is>
       </c>
       <c r="V56" t="inlineStr">
         <is>
-          <t>Jeremiah</t>
+          <t>Katherine</t>
         </is>
       </c>
       <c r="W56" t="inlineStr">
@@ -3950,19 +3945,19 @@
       <c r="Q57" t="inlineStr"/>
       <c r="R57" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>KELLEY #37, ROCKTON MOBIL</t>
         </is>
       </c>
       <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr">
         <is>
-          <t>9)</t>
+          <t>10)</t>
         </is>
       </c>
       <c r="V57" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Lashaun</t>
         </is>
       </c>
       <c r="W57" t="inlineStr">
@@ -4025,26 +4020,14 @@
       <c r="Q58" t="inlineStr"/>
       <c r="R58" t="inlineStr">
         <is>
-          <t>KELLEY #37, ROCKTON MOBIL</t>
+          <t>111 N BLACKHAWK BLVD</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
       <c r="T58" t="inlineStr"/>
-      <c r="U58" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="V58" t="inlineStr">
-        <is>
-          <t>Lashaun</t>
-        </is>
-      </c>
-      <c r="W58" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U58" t="inlineStr"/>
+      <c r="V58" t="inlineStr"/>
+      <c r="W58" t="inlineStr"/>
       <c r="X58" t="inlineStr"/>
       <c r="Y58" t="inlineStr"/>
     </row>
@@ -4104,7 +4087,7 @@
       <c r="Q59" t="inlineStr"/>
       <c r="R59" t="inlineStr">
         <is>
-          <t>111 N BLACKHAWK BLVD</t>
+          <t>https://goo.gl/maps/8XLAYoWmhuu</t>
         </is>
       </c>
       <c r="S59" t="inlineStr"/>
@@ -4165,15 +4148,15 @@
       </c>
       <c r="P60" t="inlineStr"/>
       <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/8XLAYoWmhuu</t>
-        </is>
-      </c>
+      <c r="R60" t="inlineStr"/>
       <c r="S60" t="inlineStr"/>
       <c r="T60" t="inlineStr"/>
       <c r="U60" t="inlineStr"/>
-      <c r="V60" t="inlineStr"/>
+      <c r="V60" t="inlineStr">
+        <is>
+          <t>6:30 AM START</t>
+        </is>
+      </c>
       <c r="W60" t="inlineStr"/>
       <c r="X60" t="inlineStr"/>
       <c r="Y60" t="inlineStr"/>
@@ -4227,14 +4210,26 @@
         </is>
       </c>
       <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="inlineStr"/>
+      <c r="Q61" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R61" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="S61" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T61" t="inlineStr"/>
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>MODAS</t>
         </is>
       </c>
       <c r="W61" t="inlineStr"/>
@@ -4285,24 +4280,20 @@
       <c r="P62" t="inlineStr"/>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>Mike G</t>
-        </is>
-      </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="S62" t="inlineStr"/>
       <c r="T62" t="inlineStr"/>
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr">
         <is>
-          <t>MODAS</t>
+          <t>KELLEY #16, CEDARVILLE MOBIL</t>
         </is>
       </c>
       <c r="W62" t="inlineStr"/>
@@ -4340,12 +4331,12 @@
       <c r="P63" t="inlineStr"/>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Laci</t>
         </is>
       </c>
       <c r="S63" t="inlineStr"/>
@@ -4353,7 +4344,7 @@
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr">
         <is>
-          <t>KELLEY #16, CEDARVILLE MOBIL</t>
+          <t>10 S STEPHENSON</t>
         </is>
       </c>
       <c r="W63" t="inlineStr"/>
@@ -4396,12 +4387,12 @@
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>Laci</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="S64" t="inlineStr"/>
@@ -4409,7 +4400,7 @@
       <c r="U64" t="inlineStr"/>
       <c r="V64" t="inlineStr">
         <is>
-          <t>10 S STEPHENSON</t>
+          <t>https://goo.gl/maps/T7gQ5LEiVaS2</t>
         </is>
       </c>
       <c r="W64" t="inlineStr"/>
@@ -4443,20 +4434,24 @@
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="S65" t="inlineStr"/>
+          <t>Spencer P</t>
+        </is>
+      </c>
+      <c r="S65" t="inlineStr">
+        <is>
+          <t>Until 8:15</t>
+        </is>
+      </c>
       <c r="T65" t="inlineStr"/>
       <c r="U65" t="inlineStr"/>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/T7gQ5LEiVaS2</t>
+          <t>*IL Meet is 5:45 am at IL Office</t>
         </is>
       </c>
       <c r="W65" t="inlineStr"/>
@@ -4488,28 +4483,12 @@
       </c>
       <c r="O66" t="inlineStr"/>
       <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="R66" t="inlineStr">
-        <is>
-          <t>Spencer P</t>
-        </is>
-      </c>
-      <c r="S66" t="inlineStr">
-        <is>
-          <t>Until 8:15</t>
-        </is>
-      </c>
+      <c r="Q66" t="inlineStr"/>
+      <c r="R66" t="inlineStr"/>
+      <c r="S66" t="inlineStr"/>
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr"/>
-      <c r="V66" t="inlineStr">
-        <is>
-          <t>*IL Meet is 5:45 am at IL Office</t>
-        </is>
-      </c>
+      <c r="V66" t="inlineStr"/>
       <c r="W66" t="inlineStr"/>
       <c r="X66" t="inlineStr"/>
       <c r="Y66" t="inlineStr"/>
@@ -4547,9 +4526,21 @@
       <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr"/>
-      <c r="V67" t="inlineStr"/>
-      <c r="W67" t="inlineStr"/>
+      <c r="U67" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V67" t="inlineStr">
+        <is>
+          <t>Mike G</t>
+        </is>
+      </c>
+      <c r="W67" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="X67" t="inlineStr"/>
       <c r="Y67" t="inlineStr"/>
     </row>
@@ -4583,22 +4574,27 @@
       <c r="O68" t="inlineStr"/>
       <c r="P68" t="inlineStr"/>
       <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
+      <c r="R68" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="S68" t="inlineStr"/>
       <c r="T68" t="inlineStr"/>
       <c r="U68" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V68" t="inlineStr">
         <is>
-          <t>Mike G</t>
+          <t>Angela</t>
         </is>
       </c>
       <c r="W68" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>Driver,
+Camry 3</t>
         </is>
       </c>
       <c r="X68" t="inlineStr"/>
@@ -4628,27 +4624,22 @@
       <c r="Q69" t="inlineStr"/>
       <c r="R69" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="S69" t="inlineStr"/>
       <c r="T69" t="inlineStr"/>
       <c r="U69" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V69" t="inlineStr">
         <is>
-          <t>Angela</t>
-        </is>
-      </c>
-      <c r="W69" t="inlineStr">
-        <is>
-          <t>Driver,
-Camry 3</t>
-        </is>
-      </c>
+          <t>Emily L</t>
+        </is>
+      </c>
+      <c r="W69" t="inlineStr"/>
       <c r="X69" t="inlineStr"/>
       <c r="Y69" t="inlineStr"/>
     </row>
@@ -4678,21 +4669,17 @@
       <c r="O70" t="inlineStr"/>
       <c r="P70" t="inlineStr"/>
       <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
+      <c r="R70" t="inlineStr"/>
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>4)</t>
         </is>
       </c>
       <c r="V70" t="inlineStr">
         <is>
-          <t>Emily L</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="W70" t="inlineStr"/>
@@ -4734,15 +4721,19 @@
       <c r="T71" t="inlineStr"/>
       <c r="U71" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>5)</t>
         </is>
       </c>
       <c r="V71" t="inlineStr">
         <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="W71" t="inlineStr"/>
+          <t>Tina E</t>
+        </is>
+      </c>
+      <c r="W71" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="X71" t="inlineStr"/>
       <c r="Y71" t="inlineStr"/>
     </row>
@@ -4775,21 +4766,9 @@
       <c r="R72" t="inlineStr"/>
       <c r="S72" t="inlineStr"/>
       <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="V72" t="inlineStr">
-        <is>
-          <t>Tina E</t>
-        </is>
-      </c>
-      <c r="W72" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U72" t="inlineStr"/>
+      <c r="V72" t="inlineStr"/>
+      <c r="W72" t="inlineStr"/>
       <c r="X72" t="inlineStr"/>
       <c r="Y72" t="inlineStr"/>
     </row>

--- a/11-03-24 to 11-09-24 Madison Schedule.xlsx
+++ b/11-03-24 to 11-09-24 Madison Schedule.xlsx
@@ -1127,7 +1127,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>@ Store, Equip Prius to shop in SP</t>
+          <t xml:space="preserve">@ Store, Equip </t>
         </is>
       </c>
       <c r="X16" t="inlineStr"/>
